--- a/biology/Médecine/Alain_Froment/Alain_Froment.xlsx
+++ b/biology/Médecine/Alain_Froment/Alain_Froment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Froment est un médecin et anthropologue français né en 1952 à Fontainebleau. C'est un épidémiologiste et un anthropobiologiste généraliste, spécialiste de l'évolution de l'homme moderne, qui a travaillé sur le squelette comme sur les populations vivantes. 
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et études
-Alain Froment est le fils de Henri Froment, instituteur, originaire du village de Bourron-Marlotte (où une place porte son nom, en tant qu'historien local), et Jeanne Négel, couturière, née italienne. Après une spécialité de médecine tropicale (Université Paris 6) il a obtenu un doctorat de sciences en anthropologie biologique à l'Université Paris 7. Il a également une formation en archéologie préhistorique, obtenue dans l'équipe d'André Leroi-Gourhan.
-Carrière
-Il a travaillé comme chercheur dans l'équipe du Pr Baruch Blumberg (Prix Nobel de Médecine 1976) sur l'hépatite B au Sénégal, puis a intégré en 1980 l'ORSTOM (Office de Recherches Scientifiques et Techniques Outre-Mer) devenu IRD (Institut de Recherches pour le Développement) comme chargé de recherches puis directeur de recherches. Ses travaux portent sur la variabilité biologique de l'espèce humaine, et sur des questions relatives à la nutrition et l'épidémiologie des maladies transmissibles, relevant de l'écologie humaine. Une partie de sa carrière s'est déroulée au Burkina Faso, au Sénégal, en Égypte et au Cameroun, et depuis 2006 au Musée de l'Homme à Paris.
-Il a aussi été Adjunct Professor d'anthropologie à l'Université du Maryland à College Park (États-Unis), président et secrétaire général de la Société d'Anthropologie de Paris, secrétaire de l'École d'Anthropologie (où il a été élu professeur), directeur du groupe de recherches CNRS sur les momies (GDR 3446 "Centre d'Investigation et de Recherche sur les Momies" CIRM), et responsable scientifique des collections d'anthropologie du Musée de l'Homme de 2006 à 2016[1].
+          <t>Origines et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Froment est le fils de Henri Froment, instituteur, originaire du village de Bourron-Marlotte (où une place porte son nom, en tant qu'historien local), et Jeanne Négel, couturière, née italienne. Après une spécialité de médecine tropicale (Université Paris 6) il a obtenu un doctorat de sciences en anthropologie biologique à l'Université Paris 7. Il a également une formation en archéologie préhistorique, obtenue dans l'équipe d'André Leroi-Gourhan.
 </t>
         </is>
       </c>
@@ -543,15 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvre</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Épidémiologie
-Alain Froment a été d'abord un épidémiologiste, ayant travaillé sur le rôle de l'hépatite B dans les cirrhoses et les cancers du foie au Sénégal, puis sur la malnutrition infantile. Il a coordonné un programme sur l'alimentation et la nutrition dans les diverses zones du Cameroun, et montré notamment que la malnutrition infantile obéissait à des contraintes environnementales liées à l'humidité ambiante et à la transmission des maladies parasitaires. Il a aussi étudié les maladies émergentes en forêt équatoriales et contribué à la découverte du virus HTLV-III.
-Anthropobiologie
-Alain Froment a montré qu'il y a une bonne corrélation entre la forme du crâne et l'origine géographique des populations humaines[2]. A ce titre il a contesté les allégations de l'historien sénégalais Cheikh Anta Diop en montrant que la forme du crâne des Égyptiens anciens ne ressemblait pas à celle des populations sub-sahariennes. Sa position a été critiquée par l'historienne africaniste C. Coquery-Vidrovitch[3], critique à laquelle l'auteur a répondu dans le même journal. En tant que responsable des collections du Musée de l'Homme, il a défendu le principe des collections de restes humains, considérées comme des archives de l'humanité.
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a travaillé comme chercheur dans l'équipe du Pr Baruch Blumberg (Prix Nobel de Médecine 1976) sur l'hépatite B au Sénégal, puis a intégré en 1980 l'ORSTOM (Office de Recherches Scientifiques et Techniques Outre-Mer) devenu IRD (Institut de Recherches pour le Développement) comme chargé de recherches puis directeur de recherches. Ses travaux portent sur la variabilité biologique de l'espèce humaine, et sur des questions relatives à la nutrition et l'épidémiologie des maladies transmissibles, relevant de l'écologie humaine. Une partie de sa carrière s'est déroulée au Burkina Faso, au Sénégal, en Égypte et au Cameroun, et depuis 2006 au Musée de l'Homme à Paris.
+Il a aussi été Adjunct Professor d'anthropologie à l'Université du Maryland à College Park (États-Unis), président et secrétaire général de la Société d'Anthropologie de Paris, secrétaire de l'École d'Anthropologie (où il a été élu professeur), directeur du groupe de recherches CNRS sur les momies (GDR 3446 "Centre d'Investigation et de Recherche sur les Momies" CIRM), et responsable scientifique des collections d'anthropologie du Musée de l'Homme de 2006 à 2016.
 </t>
         </is>
       </c>
@@ -577,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Titres et distinctions</t>
+          <t>Œuvre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médaille d'argent de la Faculté de Médecine de Paris, Prix Bertillon de la Société d'Anthropologie de Paris.
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Froment a été d'abord un épidémiologiste, ayant travaillé sur le rôle de l'hépatite B dans les cirrhoses et les cancers du foie au Sénégal, puis sur la malnutrition infantile. Il a coordonné un programme sur l'alimentation et la nutrition dans les diverses zones du Cameroun, et montré notamment que la malnutrition infantile obéissait à des contraintes environnementales liées à l'humidité ambiante et à la transmission des maladies parasitaires. Il a aussi étudié les maladies émergentes en forêt équatoriales et contribué à la découverte du virus HTLV-III.
 </t>
         </is>
       </c>
@@ -608,10 +632,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anthropobiologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Froment a montré qu'il y a une bonne corrélation entre la forme du crâne et l'origine géographique des populations humaines. A ce titre il a contesté les allégations de l'historien sénégalais Cheikh Anta Diop en montrant que la forme du crâne des Égyptiens anciens ne ressemblait pas à celle des populations sub-sahariennes. Sa position a été critiquée par l'historienne africaniste C. Coquery-Vidrovitch, critique à laquelle l'auteur a répondu dans le même journal. En tant que responsable des collections du Musée de l'Homme, il a défendu le principe des collections de restes humains, considérées comme des archives de l'humanité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alain_Froment</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Froment</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Titres et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médaille d'argent de la Faculté de Médecine de Paris, Prix Bertillon de la Société d'Anthropologie de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alain_Froment</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Froment</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La plupart des travaux du Dr Froment sont accessibles dans la base Horizon de l'IRD.
 Froment A. 1988. Le Peuplement de la Boucle du Niger: Etude anthropobiologique. Travaux et Documents de l'ORSTOM, N° 215, 194 p.
